--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\software-soldiers-se-project-srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2420D6D5-E4E2-4A19-B68A-B1E904C62293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161BA7D4-124A-4A0F-97BB-A206F4EDDECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="145">
   <si>
     <t>Test Case Template</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Check for attrition by the chosen category.</t>
   </si>
   <si>
-    <t>Category-wise attrition data</t>
-  </si>
-  <si>
     <t>The dashboard loads with the selected category's attrition data.</t>
   </si>
   <si>
@@ -455,17 +452,27 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Sufficient Attrition Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,14 +529,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -823,25 +831,25 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -855,25 +863,25 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -887,25 +895,25 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,28 +924,28 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -948,28 +956,28 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -980,28 +988,28 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1012,28 +1020,28 @@
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1047,25 +1055,25 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,13 +1099,13 @@
         <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1123,13 +1131,13 @@
         <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1148,20 +1156,20 @@
       <c r="E13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,18 +1188,20 @@
       <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,13 +1227,13 @@
         <v>54</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,13 +1259,13 @@
         <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,13 +1291,13 @@
         <v>66</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1313,13 +1323,13 @@
         <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1345,13 +1355,13 @@
         <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1377,13 +1387,13 @@
         <v>83</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,13 +1419,13 @@
         <v>89</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1441,13 +1451,13 @@
         <v>95</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2428,13 +2438,22 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005A3F9E2F822EC4F900BF8C9BCD80649" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c783b80f4b2f654bfb29864538438658">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a52643f4-c2bd-4de1-bc1d-3ece337420ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23adc16eaa9c6fec6b77cd9b56c1eb82" ns2:_="">
     <xsd:import namespace="a52643f4-c2bd-4de1-bc1d-3ece337420ee"/>
@@ -2560,16 +2579,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B15DFB-C9D2-4379-A295-92BFF96B83B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3297CC8-4102-4833-93E0-C112AF982220}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2585,12 +2603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9B15DFB-C9D2-4379-A295-92BFF96B83B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>